--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H2">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I2">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J2">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8229729999999998</v>
+        <v>0.193739</v>
       </c>
       <c r="N2">
-        <v>2.468919</v>
+        <v>0.5812170000000001</v>
       </c>
       <c r="O2">
-        <v>0.887310079224403</v>
+        <v>0.178467861985615</v>
       </c>
       <c r="P2">
-        <v>0.8873100792244031</v>
+        <v>0.178467861985615</v>
       </c>
       <c r="Q2">
-        <v>112.161061944261</v>
+        <v>13.204915459008</v>
       </c>
       <c r="R2">
-        <v>1009.449557498349</v>
+        <v>118.844239131072</v>
       </c>
       <c r="S2">
-        <v>0.2332532749450087</v>
+        <v>0.02941590112629642</v>
       </c>
       <c r="T2">
-        <v>0.2332532749450087</v>
+        <v>0.02941590112629642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H3">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I3">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J3">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.104519</v>
+        <v>0.8229729999999998</v>
       </c>
       <c r="N3">
-        <v>0.313557</v>
+        <v>2.468919</v>
       </c>
       <c r="O3">
-        <v>0.112689920775597</v>
+        <v>0.7581035918523759</v>
       </c>
       <c r="P3">
-        <v>0.112689920775597</v>
+        <v>0.7581035918523759</v>
       </c>
       <c r="Q3">
-        <v>14.244649621983</v>
+        <v>56.09241758265598</v>
       </c>
       <c r="R3">
-        <v>128.201846597847</v>
+        <v>504.8317582439039</v>
       </c>
       <c r="S3">
-        <v>0.02962357093607855</v>
+        <v>0.1249541517072532</v>
       </c>
       <c r="T3">
-        <v>0.02962357093607855</v>
+        <v>0.1249541517072532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>143.539174</v>
+        <v>68.158272</v>
       </c>
       <c r="H4">
-        <v>430.617522</v>
+        <v>204.474816</v>
       </c>
       <c r="I4">
-        <v>0.2768638492442244</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J4">
-        <v>0.2768638492442244</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.8229729999999998</v>
+        <v>0.068856</v>
       </c>
       <c r="N4">
-        <v>2.468919</v>
+        <v>0.206568</v>
       </c>
       <c r="O4">
-        <v>0.887310079224403</v>
+        <v>0.0634285461620092</v>
       </c>
       <c r="P4">
-        <v>0.8873100792244031</v>
+        <v>0.0634285461620092</v>
       </c>
       <c r="Q4">
-        <v>118.128864644302</v>
+        <v>4.693105976831999</v>
       </c>
       <c r="R4">
-        <v>1063.159781798718</v>
+        <v>42.237953791488</v>
       </c>
       <c r="S4">
-        <v>0.2456640840072659</v>
+        <v>0.01045458729503232</v>
       </c>
       <c r="T4">
-        <v>0.2456640840072659</v>
+        <v>0.01045458729503231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>430.617522</v>
       </c>
       <c r="I5">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J5">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.104519</v>
+        <v>0.193739</v>
       </c>
       <c r="N5">
-        <v>0.313557</v>
+        <v>0.5812170000000001</v>
       </c>
       <c r="O5">
-        <v>0.112689920775597</v>
+        <v>0.178467861985615</v>
       </c>
       <c r="P5">
-        <v>0.112689920775597</v>
+        <v>0.178467861985615</v>
       </c>
       <c r="Q5">
-        <v>15.002570927306</v>
+        <v>27.809136031586</v>
       </c>
       <c r="R5">
-        <v>135.023138345754</v>
+        <v>250.282224284274</v>
       </c>
       <c r="S5">
-        <v>0.03119976523695848</v>
+        <v>0.06194896123737201</v>
       </c>
       <c r="T5">
-        <v>0.03119976523695848</v>
+        <v>0.061948961237372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>238.6199593333333</v>
+        <v>143.539174</v>
       </c>
       <c r="H6">
-        <v>715.859878</v>
+        <v>430.617522</v>
       </c>
       <c r="I6">
-        <v>0.4602593048746885</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J6">
-        <v>0.4602593048746884</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>2.468919</v>
       </c>
       <c r="O6">
-        <v>0.887310079224403</v>
+        <v>0.7581035918523759</v>
       </c>
       <c r="P6">
-        <v>0.8873100792244031</v>
+        <v>0.7581035918523759</v>
       </c>
       <c r="Q6">
-        <v>196.3777837924313</v>
+        <v>118.128864644302</v>
       </c>
       <c r="R6">
-        <v>1767.400054131882</v>
+        <v>1063.159781798718</v>
       </c>
       <c r="S6">
-        <v>0.4083927202721285</v>
+        <v>0.2631495077212319</v>
       </c>
       <c r="T6">
-        <v>0.4083927202721285</v>
+        <v>0.2631495077212318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>238.6199593333333</v>
+        <v>143.539174</v>
       </c>
       <c r="H7">
-        <v>715.859878</v>
+        <v>430.617522</v>
       </c>
       <c r="I7">
-        <v>0.4602593048746885</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J7">
-        <v>0.4602593048746884</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.104519</v>
+        <v>0.068856</v>
       </c>
       <c r="N7">
-        <v>0.313557</v>
+        <v>0.206568</v>
       </c>
       <c r="O7">
-        <v>0.112689920775597</v>
+        <v>0.0634285461620092</v>
       </c>
       <c r="P7">
-        <v>0.112689920775597</v>
+        <v>0.0634285461620092</v>
       </c>
       <c r="Q7">
-        <v>24.94031952956067</v>
+        <v>9.883533364944</v>
       </c>
       <c r="R7">
-        <v>224.462875766046</v>
+        <v>88.951800284496</v>
       </c>
       <c r="S7">
-        <v>0.05186658460256</v>
+        <v>0.02201703154739358</v>
       </c>
       <c r="T7">
-        <v>0.05186658460255999</v>
+        <v>0.02201703154739358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>201.822474</v>
+      </c>
+      <c r="H8">
+        <v>605.4674219999999</v>
+      </c>
+      <c r="I8">
+        <v>0.4880598593654206</v>
+      </c>
+      <c r="J8">
+        <v>0.4880598593654206</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.193739</v>
+      </c>
+      <c r="N8">
+        <v>0.5812170000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.178467861985615</v>
+      </c>
+      <c r="P8">
+        <v>0.178467861985615</v>
+      </c>
+      <c r="Q8">
+        <v>39.100884290286</v>
+      </c>
+      <c r="R8">
+        <v>351.907958612574</v>
+      </c>
+      <c r="S8">
+        <v>0.08710299962194654</v>
+      </c>
+      <c r="T8">
+        <v>0.08710299962194652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>201.822474</v>
+      </c>
+      <c r="H9">
+        <v>605.4674219999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4880598593654206</v>
+      </c>
+      <c r="J9">
+        <v>0.4880598593654206</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8229729999999998</v>
+      </c>
+      <c r="N9">
+        <v>2.468919</v>
+      </c>
+      <c r="O9">
+        <v>0.7581035918523759</v>
+      </c>
+      <c r="P9">
+        <v>0.7581035918523759</v>
+      </c>
+      <c r="Q9">
+        <v>166.0944468952019</v>
+      </c>
+      <c r="R9">
+        <v>1494.850022056818</v>
+      </c>
+      <c r="S9">
+        <v>0.3699999324238908</v>
+      </c>
+      <c r="T9">
+        <v>0.3699999324238907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>201.822474</v>
+      </c>
+      <c r="H10">
+        <v>605.4674219999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4880598593654206</v>
+      </c>
+      <c r="J10">
+        <v>0.4880598593654206</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.068856</v>
+      </c>
+      <c r="N10">
+        <v>0.206568</v>
+      </c>
+      <c r="O10">
+        <v>0.0634285461620092</v>
+      </c>
+      <c r="P10">
+        <v>0.0634285461620092</v>
+      </c>
+      <c r="Q10">
+        <v>13.896688269744</v>
+      </c>
+      <c r="R10">
+        <v>125.070194427696</v>
+      </c>
+      <c r="S10">
+        <v>0.0309569273195833</v>
+      </c>
+      <c r="T10">
+        <v>0.0309569273195833</v>
       </c>
     </row>
   </sheetData>
